--- a/data/processed/basaltic_glasses/calczaf_files/D2872/calczaf_oxides_summary.xlsx
+++ b/data/processed/basaltic_glasses/calczaf_files/D2872/calczaf_oxides_summary.xlsx
@@ -613,10 +613,10 @@
         <v>1.724</v>
       </c>
       <c r="J3">
-        <v>5.183</v>
+        <v>5.169</v>
       </c>
       <c r="K3">
-        <v>0.168</v>
+        <v>0.182</v>
       </c>
       <c r="L3">
         <v>0.188</v>
@@ -663,10 +663,10 @@
         <v>1.724</v>
       </c>
       <c r="J4">
-        <v>5.148</v>
+        <v>5.132</v>
       </c>
       <c r="K4">
-        <v>0.202</v>
+        <v>0.219</v>
       </c>
       <c r="L4">
         <v>0.188</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="K3">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.029</v>
+        <v>0.031</v>
       </c>
       <c r="K4">
-        <v>0.029</v>
+        <v>0.031</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1138,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.183</v>
+        <v>5.169</v>
       </c>
       <c r="M3">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="N3">
         <v>0.207</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.168</v>
+        <v>0.182</v>
       </c>
       <c r="U3">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="V3">
         <v>1.724</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.148</v>
+        <v>5.132</v>
       </c>
       <c r="M4">
-        <v>0.029</v>
+        <v>0.031</v>
       </c>
       <c r="N4">
         <v>0.207</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0.202</v>
+        <v>0.219</v>
       </c>
       <c r="U4">
-        <v>0.029</v>
+        <v>0.031</v>
       </c>
       <c r="V4">
         <v>1.724</v>
